--- a/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29F3280-434C-443A-930A-1A188A5D0919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7070A0E-CE5B-4BBB-8A2B-A79BDDF69483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E39B69A8-44E9-491A-9A3D-394B39238B39}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05F534C4-9A54-4B2D-A00A-30BBA8E13183}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45C96B4-9E03-4B85-BEBE-C231A6A66CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC941A-BCDB-4FB8-8AD2-A3AB1B17FAAE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7070A0E-CE5B-4BBB-8A2B-A79BDDF69483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D05C14-3114-45B9-9A2A-780A6EE20A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05F534C4-9A54-4B2D-A00A-30BBA8E13183}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEAACB96-85C1-46DB-8364-291F5F1E5111}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="288">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -92,7 +92,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -101,13 +101,13 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -116,7 +116,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,11%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -125,28 +125,28 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -155,685 +155,685 @@
     <t>27,84%</t>
   </si>
   <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -842,64 +842,61 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1314,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC941A-BCDB-4FB8-8AD2-A3AB1B17FAAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAB2D3-C4AC-47D9-9091-890385DC70FE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,16 +1621,16 @@
         <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>107</v>
@@ -1642,13 +1639,13 @@
         <v>237752</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1657,13 +1654,13 @@
         <v>250713</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>254</v>
@@ -1672,13 +1669,13 @@
         <v>488465</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,13 +1690,13 @@
         <v>375236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -1708,13 +1705,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>377</v>
@@ -1723,18 +1720,18 @@
         <v>730193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1746,13 +1743,13 @@
         <v>1192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1761,13 +1758,13 @@
         <v>1908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1776,13 +1773,13 @@
         <v>3100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,13 +1794,13 @@
         <v>6392</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1812,13 +1809,13 @@
         <v>3647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1827,13 +1824,13 @@
         <v>10039</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1848,13 +1845,13 @@
         <v>34013</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -1863,13 +1860,13 @@
         <v>17464</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1878,13 +1875,13 @@
         <v>51477</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1896,13 @@
         <v>91434</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -1914,13 +1911,13 @@
         <v>103561</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -1929,19 +1926,19 @@
         <v>194995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>199</v>
@@ -1950,13 +1947,13 @@
         <v>292286</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -1965,13 +1962,13 @@
         <v>371050</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>546</v>
@@ -1980,13 +1977,13 @@
         <v>663336</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +1998,13 @@
         <v>425317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>459</v>
@@ -2016,13 +2013,13 @@
         <v>497630</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>759</v>
@@ -2031,18 +2028,18 @@
         <v>922947</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2054,13 +2051,13 @@
         <v>3723</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2069,13 +2066,13 @@
         <v>1697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2084,13 +2081,13 @@
         <v>5420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2102,13 @@
         <v>10936</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2120,13 +2117,13 @@
         <v>2633</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2135,13 +2132,13 @@
         <v>13569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2153,13 @@
         <v>33123</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2171,13 +2168,13 @@
         <v>13739</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -2186,13 +2183,13 @@
         <v>46861</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2204,13 @@
         <v>121389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -2222,13 +2219,13 @@
         <v>113184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -2237,19 +2234,19 @@
         <v>234572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>371</v>
@@ -2258,13 +2255,13 @@
         <v>385043</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>633</v>
@@ -2273,13 +2270,13 @@
         <v>449558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>1004</v>
@@ -2288,13 +2285,13 @@
         <v>834602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2306,13 @@
         <v>554213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>842</v>
@@ -2324,13 +2321,13 @@
         <v>580811</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>1384</v>
@@ -2339,18 +2336,18 @@
         <v>1135024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2362,13 +2359,13 @@
         <v>1847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2377,13 +2374,13 @@
         <v>2266</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2392,13 +2389,13 @@
         <v>4113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2410,13 @@
         <v>8148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2428,13 +2425,13 @@
         <v>1457</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2443,13 +2440,13 @@
         <v>9605</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2461,13 @@
         <v>30953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -2479,13 +2476,13 @@
         <v>43025</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -2494,13 +2491,13 @@
         <v>73978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2512,13 @@
         <v>149424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>248</v>
@@ -2530,13 +2527,13 @@
         <v>149285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
@@ -2545,19 +2542,19 @@
         <v>298709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>468</v>
@@ -2566,13 +2563,13 @@
         <v>527736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>824</v>
@@ -2581,13 +2578,13 @@
         <v>546570</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>1292</v>
@@ -2596,13 +2593,13 @@
         <v>1074306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2614,13 @@
         <v>718108</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>1134</v>
@@ -2632,13 +2629,13 @@
         <v>742602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1795</v>
@@ -2647,18 +2644,18 @@
         <v>1460710</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2670,13 +2667,13 @@
         <v>2030</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2685,13 +2682,13 @@
         <v>1548</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -2700,13 +2697,13 @@
         <v>3578</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2718,13 @@
         <v>6052</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2736,13 +2733,13 @@
         <v>4614</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2751,13 +2748,13 @@
         <v>10667</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2769,13 @@
         <v>38683</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -2787,13 +2784,13 @@
         <v>22850</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -2802,13 +2799,13 @@
         <v>61533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2820,13 @@
         <v>123515</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>234</v>
@@ -2838,13 +2835,13 @@
         <v>133702</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>378</v>
@@ -2853,19 +2850,19 @@
         <v>257217</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>462</v>
@@ -2874,13 +2871,13 @@
         <v>423313</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>716</v>
@@ -2889,13 +2886,13 @@
         <v>429865</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>1178</v>
@@ -2904,13 +2901,13 @@
         <v>853178</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2922,13 @@
         <v>593593</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>998</v>
@@ -2940,13 +2937,13 @@
         <v>592580</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1655</v>
@@ -2955,18 +2952,18 @@
         <v>1186173</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2978,13 +2975,13 @@
         <v>1366</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2993,13 +2990,13 @@
         <v>1754</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3008,13 +3005,13 @@
         <v>3120</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3026,13 @@
         <v>4384</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3044,13 +3041,13 @@
         <v>6410</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3059,13 +3056,13 @@
         <v>10793</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3077,13 @@
         <v>31100</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -3095,13 +3092,13 @@
         <v>43238</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M36" s="7">
         <v>121</v>
@@ -3110,13 +3107,13 @@
         <v>74338</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3128,13 @@
         <v>136307</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>345</v>
@@ -3146,13 +3143,13 @@
         <v>181329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>537</v>
@@ -3161,19 +3158,19 @@
         <v>317636</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>777</v>
@@ -3182,13 +3179,13 @@
         <v>519024</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>1251</v>
@@ -3197,13 +3194,13 @@
         <v>781167</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>2028</v>
@@ -3212,13 +3209,13 @@
         <v>1300191</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3230,13 @@
         <v>692182</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>1689</v>
@@ -3248,13 +3245,13 @@
         <v>1013897</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>2709</v>
@@ -3263,13 +3260,13 @@
         <v>1706079</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3283,13 @@
         <v>12031</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -3301,13 +3298,13 @@
         <v>12767</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -3316,13 +3313,13 @@
         <v>24798</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3334,13 @@
         <v>38945</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>30</v>
@@ -3352,13 +3349,13 @@
         <v>21977</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>66</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>260</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="M41" s="7">
         <v>73</v>
@@ -3367,10 +3364,10 @@
         <v>60922</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>262</v>
@@ -3409,7 +3406,7 @@
         <v>267</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="M42" s="7">
         <v>410</v>
@@ -3418,10 +3415,10 @@
         <v>364925</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>270</v>
@@ -3469,7 +3466,7 @@
         <v>1476403</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>277</v>
@@ -3481,7 +3478,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>2384</v>
@@ -3490,13 +3487,13 @@
         <v>2385155</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>3918</v>
@@ -3505,13 +3502,13 @@
         <v>2828922</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>6302</v>
@@ -3520,13 +3517,13 @@
         <v>5214077</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3538,13 @@
         <v>3358650</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>5329</v>
@@ -3556,13 +3553,13 @@
         <v>3782476</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>8679</v>
@@ -3571,18 +3568,18 @@
         <v>7141126</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D05C14-3114-45B9-9A2A-780A6EE20A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1CE377-8AD9-47B7-A84E-A0A50EB4353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEAACB96-85C1-46DB-8364-291F5F1E5111}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AC53D38-6BD8-4DBB-BE0B-2963373C7A72}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="289">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,76%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -92,7 +92,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,06%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -101,13 +101,13 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -116,7 +116,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -125,28 +125,28 @@
     <t>7,49%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>Bastante de acuerdo</t>
@@ -155,25 +155,28 @@
     <t>27,84%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>28,85%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
@@ -182,721 +185,721 @@
     <t>63,36%</t>
   </si>
   <si>
-    <t>55,15%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1311,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAB2D3-C4AC-47D9-9091-890385DC70FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6265A13E-2F74-4E08-A107-88EC6DBC8E18}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1621,16 +1624,16 @@
         <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>107</v>
@@ -1639,13 +1642,13 @@
         <v>237752</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -1654,13 +1657,13 @@
         <v>250713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>254</v>
@@ -1669,13 +1672,13 @@
         <v>488465</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,13 +1693,13 @@
         <v>375236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -1705,13 +1708,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>377</v>
@@ -1720,18 +1723,18 @@
         <v>730193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1743,13 +1746,13 @@
         <v>1192</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1758,13 +1761,13 @@
         <v>1908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1773,13 +1776,13 @@
         <v>3100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,13 +1797,13 @@
         <v>6392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1809,13 +1812,13 @@
         <v>3647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1824,13 +1827,13 @@
         <v>10039</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1848,13 @@
         <v>34013</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -1860,13 +1863,13 @@
         <v>17464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
@@ -1875,13 +1878,13 @@
         <v>51477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,13 +1899,13 @@
         <v>91434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -1911,13 +1914,13 @@
         <v>103561</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -1926,19 +1929,19 @@
         <v>194995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>199</v>
@@ -1947,13 +1950,13 @@
         <v>292286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -1962,13 +1965,13 @@
         <v>371050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>546</v>
@@ -1977,13 +1980,13 @@
         <v>663336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +2001,13 @@
         <v>425317</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>459</v>
@@ -2013,13 +2016,13 @@
         <v>497630</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>759</v>
@@ -2028,18 +2031,18 @@
         <v>922947</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2051,13 +2054,13 @@
         <v>3723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2066,13 +2069,13 @@
         <v>1697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2081,13 +2084,13 @@
         <v>5420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2105,13 @@
         <v>10936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2117,13 +2120,13 @@
         <v>2633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2132,13 +2135,13 @@
         <v>13569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2156,13 @@
         <v>33123</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2168,13 +2171,13 @@
         <v>13739</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -2183,13 +2186,13 @@
         <v>46861</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2207,13 @@
         <v>121389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -2219,13 +2222,13 @@
         <v>113184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -2234,19 +2237,19 @@
         <v>234572</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>371</v>
@@ -2255,13 +2258,13 @@
         <v>385043</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>633</v>
@@ -2270,13 +2273,13 @@
         <v>449558</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1004</v>
@@ -2285,13 +2288,13 @@
         <v>834602</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2309,13 @@
         <v>554213</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>842</v>
@@ -2321,13 +2324,13 @@
         <v>580811</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1384</v>
@@ -2336,18 +2339,18 @@
         <v>1135024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2359,13 +2362,13 @@
         <v>1847</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2374,13 +2377,13 @@
         <v>2266</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -2389,13 +2392,13 @@
         <v>4113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2413,13 @@
         <v>8148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2425,13 +2428,13 @@
         <v>1457</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -2440,13 +2443,13 @@
         <v>9605</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2464,13 @@
         <v>30953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -2476,13 +2479,13 @@
         <v>43025</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -2491,13 +2494,13 @@
         <v>73978</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2515,13 @@
         <v>149424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>248</v>
@@ -2527,13 +2530,13 @@
         <v>149285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
@@ -2542,19 +2545,19 @@
         <v>298709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>468</v>
@@ -2563,13 +2566,13 @@
         <v>527736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>824</v>
@@ -2578,13 +2581,13 @@
         <v>546570</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>1292</v>
@@ -2593,13 +2596,13 @@
         <v>1074306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2617,13 @@
         <v>718108</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1134</v>
@@ -2629,13 +2632,13 @@
         <v>742602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1795</v>
@@ -2644,18 +2647,18 @@
         <v>1460710</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2667,13 +2670,13 @@
         <v>2030</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -2682,13 +2685,13 @@
         <v>1548</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -2697,13 +2700,13 @@
         <v>3578</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2721,13 @@
         <v>6052</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2733,13 +2736,13 @@
         <v>4614</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -2748,13 +2751,13 @@
         <v>10667</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2772,13 @@
         <v>38683</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -2784,13 +2787,13 @@
         <v>22850</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -2799,13 +2802,13 @@
         <v>61533</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2823,13 @@
         <v>123515</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>234</v>
@@ -2835,13 +2838,13 @@
         <v>133702</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>378</v>
@@ -2850,19 +2853,19 @@
         <v>257217</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>462</v>
@@ -2871,13 +2874,13 @@
         <v>423313</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>716</v>
@@ -2886,13 +2889,13 @@
         <v>429865</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>1178</v>
@@ -2901,13 +2904,13 @@
         <v>853178</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2925,13 @@
         <v>593593</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>998</v>
@@ -2937,13 +2940,13 @@
         <v>592580</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1655</v>
@@ -2952,18 +2955,18 @@
         <v>1186173</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2975,13 +2978,13 @@
         <v>1366</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2990,13 +2993,13 @@
         <v>1754</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3005,13 +3008,13 @@
         <v>3120</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3029,13 @@
         <v>4384</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3041,13 +3044,13 @@
         <v>6410</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -3056,13 +3059,13 @@
         <v>10793</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3080,13 @@
         <v>31100</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -3092,13 +3095,13 @@
         <v>43238</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>121</v>
@@ -3107,13 +3110,13 @@
         <v>74338</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3131,13 @@
         <v>136307</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>345</v>
@@ -3143,13 +3146,13 @@
         <v>181329</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>537</v>
@@ -3158,19 +3161,19 @@
         <v>317636</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
         <v>777</v>
@@ -3179,13 +3182,13 @@
         <v>519024</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>1251</v>
@@ -3194,13 +3197,13 @@
         <v>781167</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>2028</v>
@@ -3209,13 +3212,13 @@
         <v>1300191</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3233,13 @@
         <v>692182</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>1689</v>
@@ -3245,13 +3248,13 @@
         <v>1013897</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>2709</v>
@@ -3260,13 +3263,13 @@
         <v>1706079</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3286,13 @@
         <v>12031</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -3298,13 +3301,13 @@
         <v>12767</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M40" s="7">
         <v>27</v>
@@ -3313,13 +3316,13 @@
         <v>24798</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3337,13 @@
         <v>38945</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>30</v>
@@ -3349,13 +3352,13 @@
         <v>21977</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>260</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="M41" s="7">
         <v>73</v>
@@ -3364,10 +3367,10 @@
         <v>60922</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>262</v>
@@ -3406,7 +3409,7 @@
         <v>267</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>410</v>
@@ -3415,10 +3418,10 @@
         <v>364925</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>270</v>
@@ -3466,7 +3469,7 @@
         <v>1476403</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>277</v>
@@ -3478,7 +3481,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
         <v>2384</v>
@@ -3487,13 +3490,13 @@
         <v>2385155</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>49</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>3918</v>
@@ -3502,13 +3505,13 @@
         <v>2828922</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>6302</v>
@@ -3517,13 +3520,13 @@
         <v>5214077</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3541,13 @@
         <v>3358650</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="7">
         <v>5329</v>
@@ -3553,13 +3556,13 @@
         <v>3782476</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="7">
         <v>8679</v>
@@ -3568,18 +3571,18 @@
         <v>7141126</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1CE377-8AD9-47B7-A84E-A0A50EB4353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF65E03A-DBCA-490C-8D66-D466619EE39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AC53D38-6BD8-4DBB-BE0B-2963373C7A72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EF1C9B2A-DAFA-4037-885E-7267B207E061}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="320">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -65,841 +65,934 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
-    <t>0,5%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1314,8 +1407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6265A13E-2F74-4E08-A107-88EC6DBC8E18}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE22E39D-CDCB-4647-86BF-218BE8D6134A}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1435,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1872</v>
+        <v>1934</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1450,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3595</v>
+        <v>3238</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1465,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>5467</v>
+        <v>5172</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1486,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>3033</v>
+        <v>3136</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1501,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3216</v>
+        <v>2878</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1516,169 +1609,169 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>6249</v>
+        <v>6014</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>28120</v>
+        <v>25578</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>28618</v>
+        <v>26816</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>56738</v>
+        <v>52394</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>104458</v>
+        <v>104312</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>68815</v>
+        <v>57053</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>173274</v>
+        <v>161365</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>237752</v>
+        <v>262953</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>250713</v>
+        <v>223216</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>254</v>
       </c>
       <c r="N8" s="7">
-        <v>488465</v>
+        <v>486169</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,51 +1783,51 @@
         <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>375236</v>
+        <v>397913</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>377</v>
       </c>
       <c r="N9" s="7">
-        <v>730193</v>
+        <v>711113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1743,46 +1836,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,199 +1887,199 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>6392</v>
+        <v>6466</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>3647</v>
+        <v>3111</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>10039</v>
+        <v>9577</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>34013</v>
+        <v>34193</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>17464</v>
+        <v>15423</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>51477</v>
+        <v>49617</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>91434</v>
+        <v>88471</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
       </c>
       <c r="I13" s="7">
-        <v>103561</v>
+        <v>148700</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
       </c>
       <c r="N13" s="7">
-        <v>194995</v>
+        <v>237171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>292286</v>
+        <v>290106</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
       </c>
       <c r="I14" s="7">
-        <v>371050</v>
+        <v>341508</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>546</v>
       </c>
       <c r="N14" s="7">
-        <v>663336</v>
+        <v>631614</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,51 +2091,51 @@
         <v>300</v>
       </c>
       <c r="D15" s="7">
-        <v>425317</v>
+        <v>420446</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>459</v>
       </c>
       <c r="I15" s="7">
-        <v>497630</v>
+        <v>510643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>759</v>
       </c>
       <c r="N15" s="7">
-        <v>922947</v>
+        <v>931089</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2051,46 +2144,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3723</v>
+        <v>3813</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1697</v>
+        <v>1628</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>5420</v>
+        <v>5441</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,199 +2195,199 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>10936</v>
+        <v>10711</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2633</v>
+        <v>2510</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>13569</v>
+        <v>13220</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>34</v>
       </c>
       <c r="D18" s="7">
-        <v>33123</v>
+        <v>31873</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>13739</v>
+        <v>12589</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
       </c>
       <c r="N18" s="7">
-        <v>46861</v>
+        <v>44462</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>122</v>
       </c>
       <c r="D19" s="7">
-        <v>121389</v>
+        <v>114663</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
       </c>
       <c r="I19" s="7">
-        <v>113184</v>
+        <v>104332</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
       </c>
       <c r="N19" s="7">
-        <v>234572</v>
+        <v>218995</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>371</v>
       </c>
       <c r="D20" s="7">
-        <v>385043</v>
+        <v>372230</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>633</v>
       </c>
       <c r="I20" s="7">
-        <v>449558</v>
+        <v>418886</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>1004</v>
       </c>
       <c r="N20" s="7">
-        <v>834602</v>
+        <v>791116</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,51 +2399,51 @@
         <v>542</v>
       </c>
       <c r="D21" s="7">
-        <v>554213</v>
+        <v>533289</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>842</v>
       </c>
       <c r="I21" s="7">
-        <v>580811</v>
+        <v>539945</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>1384</v>
       </c>
       <c r="N21" s="7">
-        <v>1135024</v>
+        <v>1073234</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2359,46 +2452,46 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1847</v>
+        <v>1735</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2266</v>
+        <v>2113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>4113</v>
+        <v>3847</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,199 +2503,199 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>8148</v>
+        <v>7363</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1457</v>
+        <v>1332</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>9605</v>
+        <v>8695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>30953</v>
+        <v>28876</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
       </c>
       <c r="I24" s="7">
-        <v>43025</v>
+        <v>38108</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
       </c>
       <c r="N24" s="7">
-        <v>73978</v>
+        <v>66985</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>153</v>
       </c>
       <c r="D25" s="7">
-        <v>149424</v>
+        <v>139148</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>248</v>
       </c>
       <c r="I25" s="7">
-        <v>149285</v>
+        <v>136758</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>401</v>
       </c>
       <c r="N25" s="7">
-        <v>298709</v>
+        <v>275906</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>468</v>
       </c>
       <c r="D26" s="7">
-        <v>527736</v>
+        <v>704970</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>824</v>
       </c>
       <c r="I26" s="7">
-        <v>546570</v>
+        <v>530228</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>1292</v>
       </c>
       <c r="N26" s="7">
-        <v>1074306</v>
+        <v>1235197</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,51 +2707,51 @@
         <v>661</v>
       </c>
       <c r="D27" s="7">
-        <v>718108</v>
+        <v>882092</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>1134</v>
       </c>
       <c r="I27" s="7">
-        <v>742602</v>
+        <v>708539</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>1795</v>
       </c>
       <c r="N27" s="7">
-        <v>1460710</v>
+        <v>1590630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2667,46 +2760,46 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>2030</v>
+        <v>1976</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>1548</v>
+        <v>1394</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>3578</v>
+        <v>3370</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,199 +2811,199 @@
         <v>8</v>
       </c>
       <c r="D29" s="7">
-        <v>6052</v>
+        <v>5621</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>4614</v>
+        <v>4286</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
       </c>
       <c r="N29" s="7">
-        <v>10667</v>
+        <v>9907</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>41</v>
       </c>
       <c r="D30" s="7">
-        <v>38683</v>
+        <v>35465</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
       </c>
       <c r="I30" s="7">
-        <v>22850</v>
+        <v>20676</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
       </c>
       <c r="N30" s="7">
-        <v>61533</v>
+        <v>56141</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>144</v>
       </c>
       <c r="D31" s="7">
-        <v>123515</v>
+        <v>114088</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>234</v>
       </c>
       <c r="I31" s="7">
-        <v>133702</v>
+        <v>121498</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>378</v>
       </c>
       <c r="N31" s="7">
-        <v>257217</v>
+        <v>235587</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>462</v>
       </c>
       <c r="D32" s="7">
-        <v>423313</v>
+        <v>397927</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7">
         <v>716</v>
       </c>
       <c r="I32" s="7">
-        <v>429865</v>
+        <v>396073</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M32" s="7">
         <v>1178</v>
       </c>
       <c r="N32" s="7">
-        <v>853178</v>
+        <v>794001</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,51 +3015,51 @@
         <v>657</v>
       </c>
       <c r="D33" s="7">
-        <v>593593</v>
+        <v>555078</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>998</v>
       </c>
       <c r="I33" s="7">
-        <v>592580</v>
+        <v>543928</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1655</v>
       </c>
       <c r="N33" s="7">
-        <v>1186173</v>
+        <v>1099006</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2975,46 +3068,46 @@
         <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>404</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
         <v>3</v>
       </c>
-      <c r="I34" s="7">
-        <v>1754</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M34" s="7">
-        <v>5</v>
-      </c>
       <c r="N34" s="7">
-        <v>3120</v>
+        <v>1793</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,202 +3116,202 @@
         <v>19</v>
       </c>
       <c r="C35" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>4384</v>
+        <v>3392</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="H35" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I35" s="7">
-        <v>6410</v>
+        <v>2521</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>228</v>
       </c>
       <c r="M35" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>10793</v>
+        <v>5913</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D36" s="7">
-        <v>31100</v>
+        <v>16410</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>41</v>
+      </c>
+      <c r="I36" s="7">
+        <v>20955</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H36" s="7">
-        <v>78</v>
-      </c>
-      <c r="I36" s="7">
-        <v>43238</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>66</v>
+      </c>
+      <c r="N36" s="7">
+        <v>37366</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" s="7">
-        <v>121</v>
-      </c>
-      <c r="N36" s="7">
-        <v>74338</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="D37" s="7">
-        <v>136307</v>
+        <v>71785</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" s="7">
+        <v>177</v>
+      </c>
+      <c r="I37" s="7">
+        <v>84002</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>286</v>
+      </c>
+      <c r="N37" s="7">
+        <v>155787</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="7">
-        <v>345</v>
-      </c>
-      <c r="I37" s="7">
-        <v>181329</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M37" s="7">
-        <v>537</v>
-      </c>
-      <c r="N37" s="7">
-        <v>317636</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>777</v>
+        <v>426</v>
       </c>
       <c r="D38" s="7">
-        <v>519024</v>
+        <v>273511</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" s="7">
+        <v>592</v>
+      </c>
+      <c r="I38" s="7">
+        <v>493257</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>1018</v>
+      </c>
+      <c r="N38" s="7">
+        <v>766768</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H38" s="7">
-        <v>1251</v>
-      </c>
-      <c r="I38" s="7">
-        <v>781167</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M38" s="7">
-        <v>2028</v>
-      </c>
-      <c r="N38" s="7">
-        <v>1300191</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,102 +3320,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1020</v>
+        <v>567</v>
       </c>
       <c r="D39" s="7">
-        <v>692182</v>
+        <v>366488</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
-        <v>1689</v>
+        <v>816</v>
       </c>
       <c r="I39" s="7">
-        <v>1013897</v>
+        <v>601140</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
-        <v>2709</v>
+        <v>1383</v>
       </c>
       <c r="N39" s="7">
-        <v>1706079</v>
+        <v>967628</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>12031</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="H40" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>12767</v>
+        <v>1269</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>24798</v>
+        <v>1269</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,46 +3424,46 @@
         <v>19</v>
       </c>
       <c r="C41" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>38945</v>
+        <v>497</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="7">
+        <v>7</v>
+      </c>
+      <c r="I41" s="7">
+        <v>3313</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H41" s="7">
-        <v>30</v>
-      </c>
-      <c r="I41" s="7">
-        <v>21977</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>8</v>
+      </c>
+      <c r="N41" s="7">
+        <v>3810</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="7">
-        <v>73</v>
-      </c>
-      <c r="N41" s="7">
-        <v>60922</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>262</v>
@@ -3379,13 +3472,13 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D42" s="7">
-        <v>195992</v>
+        <v>12224</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>263</v>
@@ -3397,10 +3490,10 @@
         <v>265</v>
       </c>
       <c r="H42" s="7">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="I42" s="7">
-        <v>168934</v>
+        <v>18364</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>266</v>
@@ -3412,121 +3505,121 @@
         <v>268</v>
       </c>
       <c r="M42" s="7">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="N42" s="7">
-        <v>364925</v>
+        <v>30588</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>269</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
-        <v>729</v>
+        <v>83</v>
       </c>
       <c r="D43" s="7">
-        <v>726527</v>
+        <v>53184</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H43" s="7">
-        <v>1138</v>
+        <v>168</v>
       </c>
       <c r="I43" s="7">
-        <v>749876</v>
+        <v>78984</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" s="7">
-        <v>1867</v>
+        <v>251</v>
       </c>
       <c r="N43" s="7">
-        <v>1476403</v>
+        <v>132168</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
-        <v>2384</v>
+        <v>351</v>
       </c>
       <c r="D44" s="7">
-        <v>2385155</v>
+        <v>213233</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H44" s="7">
-        <v>3918</v>
+        <v>659</v>
       </c>
       <c r="I44" s="7">
-        <v>2828922</v>
+        <v>319182</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M44" s="7">
-        <v>6302</v>
+        <v>1010</v>
       </c>
       <c r="N44" s="7">
-        <v>5214077</v>
+        <v>532415</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,63 +3628,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>453</v>
+      </c>
+      <c r="D45" s="7">
+        <v>279138</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="7">
+        <v>873</v>
+      </c>
+      <c r="I45" s="7">
+        <v>421112</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1326</v>
+      </c>
+      <c r="N45" s="7">
+        <v>700250</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>11</v>
+      </c>
+      <c r="D46" s="7">
+        <v>12056</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H46" s="7">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7">
+        <v>11948</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="7">
+        <v>27</v>
+      </c>
+      <c r="N46" s="7">
+        <v>24004</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7">
+        <v>37186</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H47" s="7">
+        <v>30</v>
+      </c>
+      <c r="I47" s="7">
+        <v>19952</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M47" s="7">
+        <v>73</v>
+      </c>
+      <c r="N47" s="7">
+        <v>57137</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="7">
+        <v>183</v>
+      </c>
+      <c r="D48" s="7">
+        <v>184619</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H48" s="7">
+        <v>227</v>
+      </c>
+      <c r="I48" s="7">
+        <v>152932</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M48" s="7">
+        <v>410</v>
+      </c>
+      <c r="N48" s="7">
+        <v>337550</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="7">
+        <v>729</v>
+      </c>
+      <c r="D49" s="7">
+        <v>685652</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1138</v>
+      </c>
+      <c r="I49" s="7">
+        <v>731326</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1867</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1416978</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2384</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2514931</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" s="7">
+        <v>3918</v>
+      </c>
+      <c r="I50" s="7">
+        <v>2722349</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M50" s="7">
+        <v>6302</v>
+      </c>
+      <c r="N50" s="7">
+        <v>5237280</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3350</v>
       </c>
-      <c r="D45" s="7">
-        <v>3358650</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3434444</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7">
         <v>5329</v>
       </c>
-      <c r="I45" s="7">
-        <v>3782476</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3638506</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="7">
         <v>8679</v>
       </c>
-      <c r="N45" s="7">
-        <v>7141126</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>288</v>
+      <c r="N51" s="7">
+        <v>7072950</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
